--- a/data/trans_orig/Q02D_FES-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_FES-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.503739375247289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.532913871830103</v>
+        <v>7.532913871830104</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>5.767520695096527</v>
@@ -693,7 +693,7 @@
         <v>8.271455675469905</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>8.598433267621827</v>
+        <v>8.598433267621825</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.371996721164691</v>
+        <v>3.31129866936856</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.547118121901626</v>
+        <v>4.486323856373054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.549809117463684</v>
+        <v>6.505494042712429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.094263526553179</v>
+        <v>6.011444764823328</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.963665847960062</v>
+        <v>5.0139387171571</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.557695474572807</v>
+        <v>6.563144508418393</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.970608050972579</v>
+        <v>7.991876056184432</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.04379405471038</v>
+        <v>8.031653141703563</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.51967944157187</v>
+        <v>4.543606400316713</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.888042895023616</v>
+        <v>5.906490262250491</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.614982079647547</v>
+        <v>7.653148503996963</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.400522901909989</v>
+        <v>7.496455376587627</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.023935172331951</v>
+        <v>5.047543876157683</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.719634263252017</v>
+        <v>5.659265256101819</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.608800898482185</v>
+        <v>8.696997272450263</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.483740935104404</v>
+        <v>9.258551592446031</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.607509077321946</v>
+        <v>6.593791366571002</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.634361581928511</v>
+        <v>7.644228530222318</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.87580776615768</v>
+        <v>9.934428563645374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.16166199920905</v>
+        <v>11.26767992645296</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.749936655465405</v>
+        <v>5.721062566173959</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.707659809020451</v>
+        <v>6.680211918671431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8.991122945933924</v>
+        <v>9.028040374158756</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>9.930368760336579</v>
+        <v>9.935483187509851</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>6.829379173454607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.293749968994818</v>
+        <v>7.293749968994817</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>6.972185180160996</v>
@@ -829,7 +829,7 @@
         <v>8.069233975702799</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>8.051781100649128</v>
+        <v>8.05178110064913</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.202248402148228</v>
+        <v>4.161397557196476</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.217294446140206</v>
+        <v>5.257621658572894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.018822405970464</v>
+        <v>6.010908872050958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.251537830089326</v>
+        <v>6.277368751313868</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.269665720513381</v>
+        <v>6.313800877412997</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.772142917894156</v>
+        <v>6.803495717073025</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.221817019937498</v>
+        <v>8.223025013219768</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.763651233633693</v>
+        <v>7.708235419275885</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.675280206129099</v>
+        <v>5.649740450567307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.283732089376157</v>
+        <v>6.257282229254723</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.568243397144461</v>
+        <v>7.566437827208677</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.402601336748153</v>
+        <v>7.419836469817487</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.958441385169573</v>
+        <v>5.945130744272281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.162907384196216</v>
+        <v>6.212561429896681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.806431840352857</v>
+        <v>7.666741631991265</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.677450460618362</v>
+        <v>8.616939805192981</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.739946526344128</v>
+        <v>7.802468538661646</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.636831889762751</v>
+        <v>7.594941832240911</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.728202811959292</v>
+        <v>9.654488636203048</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>9.43821617761898</v>
+        <v>9.366789387204127</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>6.870593453193099</v>
+        <v>6.796843256435858</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.930898932308432</v>
+        <v>6.882142758245209</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8.679688741786915</v>
+        <v>8.655987554877882</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>8.786424556408829</v>
+        <v>8.824943173798468</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>11.15645323633753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.31691013392063</v>
+        <v>7.316910133920629</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>7.770208309136619</v>
@@ -965,7 +965,7 @@
         <v>12.36001048390652</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>8.868714207046196</v>
+        <v>8.868714207046192</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.623753102028556</v>
+        <v>4.609611745612542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.987947073294627</v>
+        <v>4.999111037035756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.865992845215157</v>
+        <v>9.905981858779917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.150712822921476</v>
+        <v>5.193664696460595</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.900828602042741</v>
+        <v>6.823755403939129</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.783341029168489</v>
+        <v>6.741968022462528</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>12.06257664260674</v>
+        <v>11.96486417945377</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.231536819749357</v>
+        <v>8.220947615328285</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.225811498878331</v>
+        <v>6.161015314098979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.172395743869857</v>
+        <v>6.197193176711369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11.54280293487663</v>
+        <v>11.53222089015677</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.560808473724466</v>
+        <v>7.671058832579689</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.546720777406519</v>
+        <v>6.399724756352431</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.044147362516844</v>
+        <v>5.987637452743535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.43534255007678</v>
+        <v>12.64548212488362</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.50051803637936</v>
+        <v>12.09870532389799</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.714738057538495</v>
+        <v>8.774487658356904</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.708578627629238</v>
+        <v>7.649946328077436</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.19785478729135</v>
+        <v>14.04814824503444</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.30656727027833</v>
+        <v>11.21974789045173</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.607786890855563</v>
+        <v>7.493591569067038</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.931929770339712</v>
+        <v>6.935882142809267</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13.22292538832545</v>
+        <v>13.13872204879432</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>10.48608230966362</v>
+        <v>10.33826402420022</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>10.26311369380858</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>8.577048541940766</v>
+        <v>8.577048541940769</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>6.818381047918726</v>
@@ -1101,7 +1101,7 @@
         <v>9.902106270751593</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.781247000926754</v>
+        <v>7.781247000926753</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.245070345484471</v>
+        <v>4.19524950554717</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.811483883746127</v>
+        <v>4.795474320630939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.330087210117233</v>
+        <v>8.183034610294511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.459253560249577</v>
+        <v>5.502906359416618</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.228342822101343</v>
+        <v>7.202351273319206</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.647930792504809</v>
+        <v>6.693203393533532</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>9.519811340545131</v>
+        <v>9.432539147972353</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>7.411867227187066</v>
+        <v>7.402175522819918</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.265587604259819</v>
+        <v>6.240267778585227</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.029237624041404</v>
+        <v>6.052325097323226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.29506131368473</v>
+        <v>9.238741631788001</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.909961921075713</v>
+        <v>6.817687011709876</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.781459079583877</v>
+        <v>5.671784353215377</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.889758133162935</v>
+        <v>5.855213316443765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.61844736041789</v>
+        <v>10.37692148918826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.329823690025192</v>
+        <v>8.213462945271841</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.837143128496331</v>
+        <v>8.889359059081029</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.500631214847426</v>
+        <v>7.532064333227573</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.15557211160879</v>
+        <v>11.08472003419154</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.16944288800786</v>
+        <v>9.953477643621628</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.456753272762447</v>
+        <v>7.442646978933283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.680835633741427</v>
+        <v>6.693756435914667</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10.571942776192</v>
+        <v>10.53679960708999</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>8.968388498377708</v>
+        <v>8.856698182921059</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>8.484945099826206</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.184918961921191</v>
+        <v>7.18491896192119</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>7.144018470582281</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.444556658695483</v>
+        <v>4.435657810880872</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.169062918960689</v>
+        <v>5.154888059410511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.961173967358907</v>
+        <v>7.956679057176342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.46999737964731</v>
+        <v>6.436077809778792</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.749282087510609</v>
+        <v>6.758316678612444</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.919100734917217</v>
+        <v>6.916897451944541</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>9.745534331367711</v>
+        <v>9.755479310012657</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.285116626017684</v>
+        <v>8.315578853944455</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.93504329396911</v>
+        <v>5.972975050456198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.2924648231404</v>
+        <v>6.283419198438186</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9.180324749347042</v>
+        <v>9.16136553030073</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>7.747716908351317</v>
+        <v>7.788707262268822</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.339652413452532</v>
+        <v>5.266582938386034</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.668374495958709</v>
+        <v>5.66783657907555</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.031587400246673</v>
+        <v>9.054922447685641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.088411446332389</v>
+        <v>8.074255136778943</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.575041047217526</v>
+        <v>7.553634124685706</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.374609249909952</v>
+        <v>7.372501706030187</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.65456028754773</v>
+        <v>10.66123852201857</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.586879020601378</v>
+        <v>9.597275522440672</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.539795442665283</v>
+        <v>6.561815966157126</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.639409049352906</v>
+        <v>6.64033888627689</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9.872083708704471</v>
+        <v>9.864532353430334</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.755775639912372</v>
+        <v>8.790076518169693</v>
       </c>
     </row>
     <row r="19">
